--- a/results/P20B - 20.Respuesta B.xlsx
+++ b/results/P20B - 20.Respuesta B.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="146">
   <si>
     <t>+ 50</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">Agropecuario </t>
-  </si>
-  <si>
-    <t>Agropeuaria</t>
   </si>
   <si>
     <t>Agua Potable</t>
@@ -816,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -970,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1010,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1030,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1039,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1070,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1079,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1099,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1170,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1179,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1193,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1210,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1230,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1239,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1250,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1270,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1290,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1370,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1379,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1387,19 +1384,19 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1407,19 +1404,19 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>2</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1470,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1479,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1530,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1550,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1570,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1590,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1630,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1647,19 +1644,19 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1667,19 +1664,19 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1690,16 +1687,16 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1710,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1727,10 +1724,10 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1747,10 +1744,10 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1759,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1767,19 +1764,19 @@
         <v>52</v>
       </c>
       <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>2</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1799,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1810,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1830,16 +1827,16 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1850,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1870,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1879,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1890,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1899,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1910,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1919,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1927,19 +1924,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1947,19 +1944,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1996,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2010,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2030,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2050,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2070,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2110,16 +2107,16 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2130,16 +2127,16 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2147,10 +2144,10 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2167,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2179,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2190,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2199,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2207,10 +2204,10 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2227,10 +2224,10 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2270,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2287,7 +2284,7 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2296,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2307,13 +2304,13 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2330,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2350,16 +2347,16 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2384,41 +2381,21 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80">
-        <v>14</v>
-      </c>
-      <c r="C80">
-        <v>117</v>
-      </c>
-      <c r="D80">
-        <v>25</v>
-      </c>
-      <c r="E80">
-        <v>13</v>
-      </c>
-      <c r="F80">
         <v>169</v>
       </c>
     </row>
@@ -2429,7 +2406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2440,10 +2417,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2527,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2552,10 +2529,10 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2566,13 +2543,13 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2580,13 +2557,13 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2608,13 +2585,13 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2622,13 +2599,13 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2667,10 +2644,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2681,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2692,13 +2669,13 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2706,13 +2683,13 @@
         <v>24</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2720,13 +2697,13 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2734,13 +2711,13 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2748,13 +2725,13 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2765,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2790,10 +2767,10 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2804,10 +2781,10 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2818,13 +2795,13 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2832,13 +2809,13 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2846,13 +2823,13 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2860,10 +2837,10 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2874,10 +2851,10 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2888,13 +2865,13 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2944,13 +2921,13 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2961,10 +2938,10 @@
         <v>2</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>2</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2972,13 +2949,13 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3000,10 +2977,10 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3017,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3028,13 +3005,13 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3042,13 +3019,13 @@
         <v>48</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
         <v>2</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3056,13 +3033,13 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3084,13 +3061,13 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3098,13 +3075,13 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3115,10 +3092,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3126,13 +3103,13 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3140,13 +3117,13 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3154,13 +3131,13 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3168,13 +3145,13 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3185,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3196,13 +3173,13 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3210,13 +3187,13 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3224,13 +3201,13 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3238,10 +3215,10 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3255,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3266,13 +3243,13 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3308,10 +3285,10 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3322,10 +3299,10 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3336,13 +3313,13 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3353,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3381,10 +3358,10 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3392,13 +3369,13 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3406,10 +3383,10 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3434,10 +3411,10 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3448,10 +3425,10 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3493,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3504,13 +3481,13 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3529,29 +3506,15 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80">
-        <v>94</v>
-      </c>
-      <c r="C80">
-        <v>75</v>
-      </c>
-      <c r="D80">
         <v>169</v>
       </c>
     </row>
@@ -3562,7 +3525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3573,31 +3536,31 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -3804,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3827,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3839,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3862,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3877,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3909,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3944,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3958,7 +3921,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3979,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3993,7 +3956,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4002,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4011,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4020,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4037,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4046,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4055,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4072,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4081,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4104,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4116,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4133,13 +4096,13 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4154,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4189,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4203,7 +4166,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4212,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4230,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4247,13 +4210,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4265,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4279,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4288,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -4300,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4308,34 +4271,34 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4343,34 +4306,34 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>3</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4378,13 +4341,13 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4396,16 +4359,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4413,13 +4376,13 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4448,7 +4411,7 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4469,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -4527,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4545,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4553,7 +4516,7 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4562,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4580,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4588,34 +4551,34 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>2</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4623,13 +4586,13 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4658,7 +4621,7 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4673,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4702,25 +4665,25 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4737,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4749,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4781,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4807,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4816,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4833,34 +4796,34 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4868,13 +4831,13 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4883,19 +4846,19 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4903,7 +4866,7 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4924,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4956,10 +4919,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4982,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4991,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5008,7 +4971,7 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5017,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5026,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5035,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5043,13 +5006,13 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5061,16 +5024,16 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5078,34 +5041,34 @@
         <v>48</v>
       </c>
       <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>2</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5116,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -5131,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -5140,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5148,10 +5111,10 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5186,13 +5149,13 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5204,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5221,31 +5184,31 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5253,7 +5216,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -5280,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5294,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5303,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -5315,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5329,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5341,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5350,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5364,10 +5327,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5379,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5396,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -5414,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5431,31 +5394,31 @@
         <v>0</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>2</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -5478,19 +5441,19 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5498,34 +5461,34 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5533,34 +5496,34 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5574,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5589,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5606,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5615,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5624,13 +5587,13 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5641,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5650,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5662,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5679,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5697,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5714,13 +5677,13 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5755,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -5784,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5793,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5819,10 +5782,10 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5840,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5857,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -5875,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -5895,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -5927,13 +5890,13 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5945,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -5968,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5980,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -5991,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6026,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -6064,10 +6027,10 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6137,13 +6100,13 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -6172,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -6198,7 +6161,7 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6225,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6242,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6260,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6268,10 +6231,10 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -6300,71 +6263,36 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80">
-        <v>34</v>
-      </c>
-      <c r="C80">
-        <v>8</v>
-      </c>
-      <c r="D80">
-        <v>22</v>
-      </c>
-      <c r="E80">
-        <v>33</v>
-      </c>
-      <c r="F80">
-        <v>5</v>
-      </c>
-      <c r="G80">
-        <v>27</v>
-      </c>
-      <c r="H80">
-        <v>10</v>
-      </c>
-      <c r="I80">
-        <v>28</v>
-      </c>
-      <c r="J80">
-        <v>2</v>
-      </c>
-      <c r="K80">
         <v>169</v>
       </c>
     </row>
@@ -6375,7 +6303,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB80"/>
+  <dimension ref="A1:BB79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6386,160 +6314,160 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>4</v>
@@ -7388,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -7526,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:54">
@@ -7552,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -7582,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -7722,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7746,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -7886,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7973,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -8018,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:54">
@@ -8044,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -8137,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -8182,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:54">
@@ -8202,13 +8130,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -8354,7 +8282,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8366,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -8387,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -8405,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -8510,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:54">
@@ -8518,7 +8446,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8551,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -8569,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -8617,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -8674,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:54">
@@ -8682,7 +8610,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8781,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -8846,7 +8774,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8921,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -9049,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -9085,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -9097,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -9166,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:54">
@@ -9213,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -9261,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -9270,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -9330,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:54">
@@ -9407,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -9434,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -9488,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19">
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:54">
@@ -9571,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -9616,13 +9544,13 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -9652,13 +9580,13 @@
         <v>0</v>
       </c>
       <c r="AZ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20">
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:54">
@@ -9741,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -9780,13 +9708,13 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -9822,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:54">
@@ -9845,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -9854,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -9866,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -9884,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -9905,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -9947,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -9971,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -9986,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:54">
@@ -9994,7 +9922,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10006,10 +9934,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -10018,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -10030,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -10048,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -10111,10 +10039,10 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -10135,13 +10063,13 @@
         <v>0</v>
       </c>
       <c r="AW23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AX23">
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23">
         <v>0</v>
@@ -10150,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:54">
@@ -10158,10 +10086,10 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -10170,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -10305,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
         <v>0</v>
@@ -10314,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:54">
@@ -10325,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -10424,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -10588,10 +10516,10 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -10668,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -10755,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -10832,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -10850,10 +10778,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -10970,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:54">
@@ -11017,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -11026,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -11065,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -11095,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -11116,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW29">
         <v>0</v>
@@ -11134,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:54">
@@ -11166,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -11178,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -11190,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -11229,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -11259,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -11280,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="AV30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -11298,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:54">
@@ -11330,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -11393,10 +11321,10 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -11551,13 +11479,13 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -11581,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
         <v>0</v>
@@ -11715,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -11733,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -11745,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -11790,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:54">
@@ -11816,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -11897,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
         <v>0</v>
@@ -11980,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -12034,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -12189,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -12198,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -12302,13 +12230,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -12353,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -12365,13 +12293,13 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -12446,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:54">
@@ -12466,13 +12394,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -12514,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -12529,13 +12457,13 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -12610,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:54">
@@ -12678,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -12765,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="AY39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -12774,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:54">
@@ -12782,7 +12710,7 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -12929,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="AY40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40">
         <v>0</v>
@@ -12946,7 +12874,7 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -12982,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -13146,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -13164,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -13251,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="AW42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -13266,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:54">
@@ -13316,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -13328,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -13364,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -13415,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="AW43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX43">
         <v>0</v>
@@ -13427,10 +13355,10 @@
         <v>0</v>
       </c>
       <c r="BA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB43">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:54">
@@ -13480,121 +13408,121 @@
         <v>0</v>
       </c>
       <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
         <v>2</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
       <c r="AV44">
         <v>0</v>
       </c>
       <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
         <v>2</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>1</v>
-      </c>
-      <c r="BB44">
-        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:54">
@@ -13659,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -13737,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AU45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV45">
         <v>0</v>
@@ -13758,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:54">
@@ -13778,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -13823,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -13942,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -13975,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -14008,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -14071,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="AW47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47">
         <v>0</v>
@@ -14083,10 +14011,10 @@
         <v>0</v>
       </c>
       <c r="BA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:54">
@@ -14124,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -14139,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -14172,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -14181,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -14235,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="AW48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -14247,10 +14175,10 @@
         <v>0</v>
       </c>
       <c r="BA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:54">
@@ -14345,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -14414,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="BB49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:54">
@@ -14452,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -14497,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -14566,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="AX50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY50">
         <v>0</v>
@@ -14578,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:54">
@@ -14610,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -14634,7 +14562,7 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -14661,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -14715,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51">
         <v>0</v>
@@ -14730,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="AX51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51">
         <v>0</v>
@@ -14742,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="BB51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:54">
@@ -14774,95 +14702,95 @@
         <v>0</v>
       </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
         <v>2</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
       <c r="AN52">
         <v>0</v>
       </c>
@@ -14879,7 +14807,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52">
         <v>0</v>
@@ -14906,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="BB52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:54">
@@ -15025,52 +14953,52 @@
         <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
         <v>2</v>
       </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>0</v>
-      </c>
       <c r="BB53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:54">
@@ -15159,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -15195,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP54">
         <v>0</v>
@@ -15231,10 +15159,10 @@
         <v>0</v>
       </c>
       <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
         <v>2</v>
-      </c>
-      <c r="BB54">
-        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:54">
@@ -15248,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -15323,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -15398,7 +15326,7 @@
         <v>0</v>
       </c>
       <c r="BB55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:54">
@@ -15412,13 +15340,13 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -15433,28 +15361,28 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -15490,10 +15418,10 @@
         <v>0</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -15520,13 +15448,13 @@
         <v>0</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO56">
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>0</v>
@@ -15553,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="AY56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ56">
         <v>0</v>
@@ -15562,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="BB56">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:54">
@@ -15573,16 +15501,16 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -15597,28 +15525,28 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -15654,10 +15582,10 @@
         <v>0</v>
       </c>
       <c r="AD57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -15684,13 +15612,13 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO57">
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ57">
         <v>0</v>
@@ -15717,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="AY57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ57">
         <v>0</v>
@@ -15726,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="BB57">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:54">
@@ -15737,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -15752,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -15916,10 +15844,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -15955,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -16054,7 +15982,7 @@
         <v>0</v>
       </c>
       <c r="BB59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:54">
@@ -16083,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -16119,7 +16047,7 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -16194,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="AT60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -16218,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="BB60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:54">
@@ -16250,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -16358,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -16414,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -16456,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -16620,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -16635,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -16793,13 +16721,13 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
         <v>0</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -16918,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -16930,7 +16858,7 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -16957,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -17038,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="BB65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:54">
@@ -17082,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -17094,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -17166,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>0</v>
@@ -17202,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="BB66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:54">
@@ -17303,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="AG67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH67">
         <v>0</v>
@@ -17330,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67">
         <v>0</v>
@@ -17389,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -17467,7 +17395,7 @@
         <v>0</v>
       </c>
       <c r="AG68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68">
         <v>0</v>
@@ -17494,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>0</v>
@@ -17530,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="BB68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:54">
@@ -17658,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69">
         <v>0</v>
@@ -17694,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="BB69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:54">
@@ -17717,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -17825,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="AQ70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>0</v>
@@ -17890,7 +17818,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -17989,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR71">
         <v>0</v>
@@ -18039,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -18054,7 +17982,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -18203,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -18344,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="AZ73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA73">
         <v>0</v>
@@ -18388,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -18508,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="AZ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA74">
         <v>0</v>
@@ -18552,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -18648,7 +18576,7 @@
         <v>0</v>
       </c>
       <c r="AR75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS75">
         <v>0</v>
@@ -18698,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -18722,7 +18650,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -18812,7 +18740,7 @@
         <v>0</v>
       </c>
       <c r="AR76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS76">
         <v>0</v>
@@ -18842,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="BB76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:54">
@@ -18862,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -18886,7 +18814,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -18991,7 +18919,7 @@
         <v>0</v>
       </c>
       <c r="AW77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX77">
         <v>0</v>
@@ -19006,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="BB77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:54">
@@ -19137,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="AQ78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>0</v>
@@ -19155,7 +19083,7 @@
         <v>0</v>
       </c>
       <c r="AW78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX78">
         <v>0</v>
@@ -19175,329 +19103,165 @@
     </row>
     <row r="79" spans="1:54">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW79">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AX79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:54">
-      <c r="A80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>6</v>
-      </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>6</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>7</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>8</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>9</v>
-      </c>
-      <c r="O80">
-        <v>2</v>
-      </c>
-      <c r="P80">
-        <v>3</v>
-      </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="R80">
-        <v>7</v>
-      </c>
-      <c r="S80">
-        <v>1</v>
-      </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>2</v>
-      </c>
-      <c r="V80">
-        <v>2</v>
-      </c>
-      <c r="W80">
-        <v>1</v>
-      </c>
-      <c r="X80">
-        <v>1</v>
-      </c>
-      <c r="Y80">
-        <v>1</v>
-      </c>
-      <c r="Z80">
-        <v>1</v>
-      </c>
-      <c r="AA80">
-        <v>8</v>
-      </c>
-      <c r="AB80">
-        <v>1</v>
-      </c>
-      <c r="AC80">
-        <v>5</v>
-      </c>
-      <c r="AD80">
-        <v>3</v>
-      </c>
-      <c r="AE80">
-        <v>6</v>
-      </c>
-      <c r="AF80">
-        <v>2</v>
-      </c>
-      <c r="AG80">
-        <v>1</v>
-      </c>
-      <c r="AH80">
-        <v>1</v>
-      </c>
-      <c r="AI80">
-        <v>2</v>
-      </c>
-      <c r="AJ80">
-        <v>1</v>
-      </c>
-      <c r="AK80">
-        <v>1</v>
-      </c>
-      <c r="AL80">
-        <v>1</v>
-      </c>
-      <c r="AM80">
-        <v>6</v>
-      </c>
-      <c r="AN80">
-        <v>4</v>
-      </c>
-      <c r="AO80">
-        <v>4</v>
-      </c>
-      <c r="AP80">
-        <v>10</v>
-      </c>
-      <c r="AQ80">
-        <v>2</v>
-      </c>
-      <c r="AR80">
-        <v>2</v>
-      </c>
-      <c r="AS80">
-        <v>1</v>
-      </c>
-      <c r="AT80">
-        <v>1</v>
-      </c>
-      <c r="AU80">
-        <v>2</v>
-      </c>
-      <c r="AV80">
-        <v>2</v>
-      </c>
-      <c r="AW80">
-        <v>17</v>
-      </c>
-      <c r="AX80">
-        <v>1</v>
-      </c>
-      <c r="AY80">
-        <v>4</v>
-      </c>
-      <c r="AZ80">
-        <v>2</v>
-      </c>
-      <c r="BA80">
-        <v>4</v>
-      </c>
-      <c r="BB80">
         <v>169</v>
       </c>
     </row>
@@ -19508,7 +19272,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19519,13 +19283,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -19627,10 +19391,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19672,16 +19436,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19689,16 +19453,16 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19709,10 +19473,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -19723,16 +19487,16 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19740,16 +19504,16 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19791,7 +19555,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -19800,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19808,7 +19572,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -19817,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19825,7 +19589,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -19834,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19842,16 +19606,16 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19862,13 +19626,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19876,16 +19640,16 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19893,16 +19657,16 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19910,16 +19674,16 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19927,13 +19691,13 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -19944,13 +19708,13 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -19984,10 +19748,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19995,16 +19759,16 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -20012,16 +19776,16 @@
         <v>34</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>2</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -20029,13 +19793,13 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -20046,10 +19810,10 @@
         <v>36</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>2</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -20066,13 +19830,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -20083,10 +19847,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -20097,13 +19861,13 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -20114,10 +19878,10 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -20134,13 +19898,13 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -20151,13 +19915,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -20168,13 +19932,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -20182,10 +19946,10 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -20199,13 +19963,13 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -20222,10 +19986,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -20236,13 +20000,13 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -20256,10 +20020,10 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -20267,16 +20031,16 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -20284,10 +20048,10 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -20304,13 +20068,13 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20324,10 +20088,10 @@
         <v>2</v>
       </c>
       <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>2</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20338,13 +20102,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20355,13 +20119,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20372,13 +20136,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20389,13 +20153,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20409,10 +20173,10 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20426,10 +20190,10 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20437,16 +20201,16 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20454,16 +20218,16 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20471,16 +20235,16 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20488,13 +20252,13 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -20505,16 +20269,16 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20525,13 +20289,13 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20539,13 +20303,13 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -20556,13 +20320,13 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -20573,10 +20337,10 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -20613,10 +20377,10 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20630,10 +20394,10 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20661,13 +20425,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -20678,13 +20442,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -20695,10 +20459,10 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -20729,10 +20493,10 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -20746,10 +20510,10 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -20780,10 +20544,10 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -20794,7 +20558,7 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -20803,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -20811,16 +20575,16 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -20842,35 +20606,18 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80">
-        <v>25</v>
-      </c>
-      <c r="C80">
-        <v>78</v>
-      </c>
-      <c r="D80">
-        <v>66</v>
-      </c>
-      <c r="E80">
         <v>169</v>
       </c>
     </row>
